--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8044.670273422813</v>
+        <v>-15857.64131122836</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33970018.24655608</v>
+        <v>33970018.24655607</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10667670.21784128</v>
+        <v>10667670.21784127</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3611909.693040898</v>
+        <v>3611909.693040897</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>407.4793503548485</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>227.4528731049588</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -1590,10 +1590,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>120.2587457220073</v>
       </c>
       <c r="X13" t="n">
-        <v>40.79600181538857</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>240.7426382079654</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>329.1815242296012</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>47.09262707756164</v>
+        <v>73.77894699955829</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>140.2446293853767</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>204.9004856623719</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>51.77925078256498</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>98.23597810413318</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>268.3829272931349</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>156.701289099429</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.062264534840353</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>81.04499162466323</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>363.4933006817164</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>328.5107569703947</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>92.89120653891781</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>53.19117033386413</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2557,10 +2557,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>197.7570681211729</v>
       </c>
       <c r="D26" t="n">
-        <v>65.61600367232404</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>173.4164943363256</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.062264534840353</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>358.0685425954623</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>214.230991478422</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3009,16 +3009,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>137.7390153623166</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>420.6863977793323</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>284.6247494321003</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11.8929745793989</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>146.3917356253861</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,16 +3271,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>170.8454278428343</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>104.8386016619055</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3486,13 +3486,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>188.8150320383709</v>
       </c>
       <c r="X37" t="n">
-        <v>80.33660888264994</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3511,16 +3511,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>83.54284419166385</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>149.6157531058523</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3723,13 +3723,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>124.4972752731884</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>88.75280557702784</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>196.2048876063469</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>368.5724630577451</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -3802,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>64.0910372860658</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>103.2603355135027</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>190.7563469189662</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -4039,10 +4039,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>361.4649050157285</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>23.80999130968954</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>89.29782872779619</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1997.710627381563</v>
+        <v>1538.10179417567</v>
       </c>
       <c r="C11" t="n">
-        <v>1997.710627381563</v>
+        <v>1538.10179417567</v>
       </c>
       <c r="D11" t="n">
-        <v>1561.800842556008</v>
+        <v>1538.10179417567</v>
       </c>
       <c r="E11" t="n">
-        <v>1128.026097714303</v>
+        <v>1104.327049333966</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>676.4596197431733</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>276.9569284226505</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W11" t="n">
-        <v>1997.710627381563</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X11" t="n">
-        <v>1997.710627381563</v>
+        <v>1538.10179417567</v>
       </c>
       <c r="Y11" t="n">
-        <v>1997.710627381563</v>
+        <v>1538.10179417567</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030332</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5162,10 +5162,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5208,13 +5208,13 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P13" t="n">
         <v>2105.896438675981</v>
@@ -5223,28 +5223,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270317</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W13" t="n">
-        <v>1552.738213270317</v>
+        <v>1529.085418343864</v>
       </c>
       <c r="X13" t="n">
-        <v>1511.53013062851</v>
+        <v>1283.693663677277</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.110459942618</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1087.577165952531</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="C14" t="n">
-        <v>649.4346931359546</v>
+        <v>1316.393772536738</v>
       </c>
       <c r="D14" t="n">
-        <v>649.4346931359546</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E14" t="n">
-        <v>649.4346931359546</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F14" t="n">
-        <v>649.4346931359546</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U14" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V14" t="n">
-        <v>2319.861207662534</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W14" t="n">
-        <v>1915.005753073567</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="X14" t="n">
-        <v>1495.863289652878</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="Y14" t="n">
-        <v>1087.577165952531</v>
+        <v>1997.710627381563</v>
       </c>
     </row>
     <row r="15">
@@ -5336,37 +5336,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.291841223631</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C16" t="n">
-        <v>919.7301297068562</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5442,46 +5442,46 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>862.0820538119935</v>
       </c>
       <c r="M16" t="n">
-        <v>818.7256495113488</v>
+        <v>992.686446150523</v>
       </c>
       <c r="N16" t="n">
-        <v>1120.185357954413</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U16" t="n">
-        <v>2118.080353351143</v>
+        <v>2081.940945496479</v>
       </c>
       <c r="V16" t="n">
-        <v>1831.124845221574</v>
+        <v>1794.985437366909</v>
       </c>
       <c r="W16" t="n">
-        <v>1559.098440807865</v>
+        <v>1522.959032953201</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.53013062851</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.110459942618</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="17">
@@ -5491,58 +5491,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="C17" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="D17" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
         <v>2108.089956131646</v>
@@ -5551,16 +5551,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1707.35802284975</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W17" t="n">
-        <v>1302.502568260783</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X17" t="n">
-        <v>883.3601048400935</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="Y17" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.655226289377</v>
+        <v>516.8535040738955</v>
       </c>
       <c r="C19" t="n">
-        <v>471.655226289377</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="D19" t="n">
-        <v>471.655226289377</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E19" t="n">
-        <v>471.655226289377</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F19" t="n">
-        <v>294.9481722511332</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
@@ -5679,13 +5679,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M19" t="n">
-        <v>1236.93553127931</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N19" t="n">
-        <v>1364.434443083199</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O19" t="n">
         <v>1657.620488527956</v>
@@ -5697,28 +5697,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2261.09931673649</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2018.852092639897</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1740.46546068864</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1453.50995255907</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1181.483548145362</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>936.0917934787744</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>708.6721227928826</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1782.900983623584</v>
+        <v>717.8031088221391</v>
       </c>
       <c r="C20" t="n">
-        <v>1344.758510807007</v>
+        <v>717.8031088221391</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>717.8031088221391</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>717.8031088221391</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2202.043447044273</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2202.043447044273</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>2202.043447044273</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W20" t="n">
-        <v>2202.043447044273</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="X20" t="n">
-        <v>1782.900983623584</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="Y20" t="n">
-        <v>1782.900983623584</v>
+        <v>1144.102679307047</v>
       </c>
     </row>
     <row r="21">
@@ -5813,28 +5813,28 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L21" t="n">
         <v>551.5786779960906</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1029.196554659879</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C22" t="n">
-        <v>856.6348431431041</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D22" t="n">
-        <v>690.7568503446269</v>
+        <v>305.7772334908988</v>
       </c>
       <c r="E22" t="n">
-        <v>520.9988465953642</v>
+        <v>305.7772334908988</v>
       </c>
       <c r="F22" t="n">
-        <v>344.2917925571204</v>
+        <v>129.070179452655</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
@@ -5919,16 +5919,16 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>1236.93553127931</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N22" t="n">
-        <v>1364.434443083199</v>
+        <v>1818.011126162985</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527957</v>
+        <v>1935.777007510746</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y22" t="n">
-        <v>1035.320054190021</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1154.573267142144</v>
+        <v>1247.648937894734</v>
       </c>
       <c r="C23" t="n">
-        <v>716.4307943255671</v>
+        <v>1247.648937894734</v>
       </c>
       <c r="D23" t="n">
-        <v>716.4307943255671</v>
+        <v>1247.648937894734</v>
       </c>
       <c r="E23" t="n">
-        <v>716.4307943255671</v>
+        <v>813.8741930530296</v>
       </c>
       <c r="F23" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6019,22 +6019,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>1486.402314586987</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W23" t="n">
-        <v>1154.573267142144</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X23" t="n">
-        <v>1154.573267142144</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="Y23" t="n">
-        <v>1154.573267142144</v>
+        <v>1247.648937894734</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1226.247766280536</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C24" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D24" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495865</v>
       </c>
       <c r="E24" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765402</v>
       </c>
       <c r="F24" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927018</v>
       </c>
       <c r="G24" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H24" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P24" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R24" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S24" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T24" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U24" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V24" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X24" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y24" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.353309902451</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C25" t="n">
-        <v>389.7915983856759</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D25" t="n">
-        <v>223.9136055871985</v>
+        <v>305.7772334908988</v>
       </c>
       <c r="E25" t="n">
-        <v>223.9136055871985</v>
+        <v>305.7772334908988</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
         <v>192.6919004158277</v>
@@ -6153,16 +6153,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>733.422710770687</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M25" t="n">
-        <v>1317.603786189002</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N25" t="n">
-        <v>1887.361501150536</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O25" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P25" t="n">
         <v>2105.896438675981</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2306.599122565046</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
-        <v>2064.351898468452</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.965266517195</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.009758387626</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W25" t="n">
-        <v>1226.983353973917</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X25" t="n">
-        <v>981.5915993073299</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y25" t="n">
-        <v>754.1719286214382</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>821.3493674098271</v>
+        <v>246.9611658127658</v>
       </c>
       <c r="C26" t="n">
-        <v>383.2068945932504</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
@@ -6256,22 +6256,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2060.790516184048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>2060.790516184048</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W26" t="n">
-        <v>1655.935061595081</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X26" t="n">
-        <v>1655.935061595081</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y26" t="n">
-        <v>1247.648937894735</v>
+        <v>673.2607362976736</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1029.196554659879</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C28" t="n">
-        <v>856.6348431431041</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D28" t="n">
-        <v>690.7568503446269</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E28" t="n">
-        <v>520.9988465953642</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F28" t="n">
-        <v>344.2917925571204</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G28" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895474</v>
@@ -6387,19 +6387,19 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092381</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P28" t="n">
         <v>2274.089213540314</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>1798.48563875808</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270317</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856609</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="X28" t="n">
-        <v>1035.320054190021</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.196554659879</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>701.7439652528263</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C29" t="n">
-        <v>263.6014924362497</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D29" t="n">
-        <v>263.6014924362497</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E29" t="n">
-        <v>263.6014924362497</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F29" t="n">
-        <v>263.6014924362497</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
         <v>512.3249274228017</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W29" t="n">
-        <v>1955.47212285877</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X29" t="n">
-        <v>1536.329659438081</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y29" t="n">
-        <v>1128.043535737734</v>
+        <v>1078.11619088664</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.081764785142</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C31" t="n">
-        <v>443.520053268367</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D31" t="n">
-        <v>393.6716093364613</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E31" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
         <v>47.20655154895474</v>
@@ -6624,22 +6624,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>358.0754347909401</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092381</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>910.9641928553089</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1423.240778490413</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>1423.240778490413</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041292</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1333.784481314111</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C32" t="n">
-        <v>1333.784481314111</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D32" t="n">
         <v>908.8487259814518</v>
@@ -6688,28 +6688,28 @@
         <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228021</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
         <v>1463.013992431967</v>
@@ -6718,7 +6718,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2101.256885969251</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V32" t="n">
-        <v>1738.639935903077</v>
+        <v>1773.290769282936</v>
       </c>
       <c r="W32" t="n">
-        <v>1333.784481314111</v>
+        <v>1773.290769282936</v>
       </c>
       <c r="X32" t="n">
-        <v>1333.784481314111</v>
+        <v>1773.290769282936</v>
       </c>
       <c r="Y32" t="n">
-        <v>1333.784481314111</v>
+        <v>1773.290769282936</v>
       </c>
     </row>
     <row r="33">
@@ -6758,25 +6758,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>896.8524940391952</v>
+        <v>890.893515694255</v>
       </c>
       <c r="C34" t="n">
-        <v>724.2907825224202</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D34" t="n">
-        <v>558.4127897239429</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E34" t="n">
-        <v>388.6547859746801</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F34" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L34" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M34" t="n">
-        <v>875.5973915434845</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N34" t="n">
-        <v>1445.355106505019</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O34" t="n">
-        <v>1982.790237078562</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,7 +6885,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
         <v>1973.653814855378</v>
@@ -6894,16 +6894,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V34" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W34" t="n">
         <v>1136.285270360843</v>
       </c>
       <c r="X34" t="n">
-        <v>1136.285270360843</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.8655996749517</v>
+        <v>890.893515694255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1955.47212285877</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C35" t="n">
-        <v>1517.329650042194</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D35" t="n">
-        <v>1081.419865216638</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E35" t="n">
-        <v>647.6451203749332</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F35" t="n">
-        <v>219.7776907841409</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G35" t="n">
         <v>47.20655154895474</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>1743.121687216892</v>
       </c>
       <c r="W35" t="n">
-        <v>1955.47212285877</v>
+        <v>1338.266232627926</v>
       </c>
       <c r="X35" t="n">
-        <v>1955.47212285877</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="Y35" t="n">
-        <v>1955.47212285877</v>
+        <v>919.1237692072363</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>863.3185618614019</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C37" t="n">
-        <v>690.7568503446269</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D37" t="n">
-        <v>690.7568503446269</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E37" t="n">
-        <v>520.9988465953642</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F37" t="n">
-        <v>344.2917925571204</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G37" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895474</v>
@@ -7098,22 +7098,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L37" t="n">
-        <v>733.4227107706877</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M37" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N37" t="n">
-        <v>1887.361501150537</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O37" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7125,22 +7125,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774552</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1459.836644286932</v>
       </c>
       <c r="X37" t="n">
-        <v>1055.137180580389</v>
+        <v>1214.444889620345</v>
       </c>
       <c r="Y37" t="n">
-        <v>1055.137180580389</v>
+        <v>987.0252189344528</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1703.23450154268</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>1265.092028726103</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>829.1822439005475</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>829.1822439005475</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>401.3148143097553</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
@@ -7192,7 +7192,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U38" t="n">
-        <v>2108.089956131646</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V38" t="n">
-        <v>2108.089956131646</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W38" t="n">
-        <v>1703.23450154268</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X38" t="n">
-        <v>1703.23450154268</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y38" t="n">
-        <v>1703.23450154268</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="39">
@@ -7232,22 +7232,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>863.3185618614019</v>
+        <v>753.852136908379</v>
       </c>
       <c r="C40" t="n">
-        <v>690.7568503446269</v>
+        <v>753.852136908379</v>
       </c>
       <c r="D40" t="n">
-        <v>690.7568503446269</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E40" t="n">
-        <v>520.9988465953642</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F40" t="n">
-        <v>344.2917925571204</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
         <v>192.6919004158277</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1282.556851266281</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>1282.556851266281</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>1055.137180580389</v>
+        <v>945.6707556273661</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1526.868684372189</v>
+        <v>475.073981139747</v>
       </c>
       <c r="C41" t="n">
-        <v>1088.726211555613</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D41" t="n">
-        <v>1088.726211555613</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E41" t="n">
-        <v>1088.726211555613</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
         <v>805.440802286702</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>1526.868684372189</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>1526.868684372189</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X41" t="n">
-        <v>1526.868684372189</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y41" t="n">
-        <v>1526.868684372189</v>
+        <v>673.2607362976731</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1029.196554659879</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C43" t="n">
-        <v>856.6348431431041</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D43" t="n">
-        <v>690.7568503446269</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E43" t="n">
-        <v>520.9988465953642</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F43" t="n">
-        <v>344.2917925571204</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895473</v>
@@ -7578,10 +7578,10 @@
         <v>688.1212571728194</v>
       </c>
       <c r="M43" t="n">
-        <v>818.7256495113488</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954413</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O43" t="n">
         <v>1657.620488527956</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>2151.162617450894</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270316</v>
+        <v>1864.207109321325</v>
       </c>
       <c r="W43" t="n">
-        <v>1448.434844064758</v>
+        <v>1592.180704907616</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.434844064758</v>
+        <v>1346.788950241029</v>
       </c>
       <c r="Y43" t="n">
-        <v>1221.015173378866</v>
+        <v>1119.369279555137</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>716.4307943255671</v>
+        <v>1067.259851166296</v>
       </c>
       <c r="C44" t="n">
-        <v>716.4307943255671</v>
+        <v>1067.259851166296</v>
       </c>
       <c r="D44" t="n">
-        <v>716.4307943255671</v>
+        <v>1067.259851166296</v>
       </c>
       <c r="E44" t="n">
-        <v>716.4307943255671</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2108.089956131645</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>1849.019264653159</v>
       </c>
       <c r="V44" t="n">
-        <v>1486.402314586987</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
-        <v>1081.54685999802</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X44" t="n">
-        <v>716.4307943255671</v>
+        <v>1067.259851166296</v>
       </c>
       <c r="Y44" t="n">
-        <v>716.4307943255671</v>
+        <v>1067.259851166296</v>
       </c>
     </row>
     <row r="45">
@@ -7718,31 +7718,31 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043081</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.655226289377</v>
+        <v>1050.147607600721</v>
       </c>
       <c r="C46" t="n">
-        <v>299.093514772602</v>
+        <v>877.5858960839461</v>
       </c>
       <c r="D46" t="n">
-        <v>299.093514772602</v>
+        <v>711.7079032854688</v>
       </c>
       <c r="E46" t="n">
-        <v>299.093514772602</v>
+        <v>541.949899536206</v>
       </c>
       <c r="F46" t="n">
-        <v>275.0430185001883</v>
+        <v>365.2428454979622</v>
       </c>
       <c r="G46" t="n">
-        <v>110.3018381127067</v>
+        <v>200.5016651104806</v>
       </c>
       <c r="H46" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>688.1212571728195</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M46" t="n">
-        <v>1272.302332591134</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N46" t="n">
-        <v>1399.801244395024</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.856484770968</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>2081.940945496478</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774552</v>
+        <v>1794.985437366909</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1522.9590329532</v>
       </c>
       <c r="X46" t="n">
-        <v>890.8935156942559</v>
+        <v>1277.567278286613</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083642</v>
+        <v>1050.147607600721</v>
       </c>
     </row>
   </sheetData>
@@ -8856,16 +8856,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>177.1920849464597</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>70.05088382580925</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9090,13 +9090,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>175.7179764032063</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>175.7179764032071</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
@@ -9327,16 +9327,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>175.7179764032062</v>
       </c>
       <c r="O19" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9567,16 +9567,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>177.1920849464602</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>70.05088382580971</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9801,19 +9801,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>45.75904403825012</v>
+        <v>175.7179764032068</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>156.7304232042869</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>156.7304232042869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10281,16 +10281,16 @@
         <v>458.158265737157</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>82.54773060122716</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>69.27619576520573</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10524,7 +10524,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>192.4544649334025</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="L37" t="n">
-        <v>45.75904403825086</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -11226,13 +11226,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N43" t="n">
-        <v>175.7179764032066</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>141.4680432173445</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23263,19 +23263,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>16.10940494003586</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>39.57146283656985</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23323,7 +23323,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>149.0473946475641</v>
       </c>
       <c r="X13" t="n">
-        <v>202.1418353045331</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>181.2939365720933</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>66.32614017771644</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -23554,16 +23554,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>195.84521004236</v>
+        <v>169.1588901203634</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>218.746151180135</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>210.0505531241105</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -23901,16 +23901,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>111.3145178010418</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>44.74629500667464</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>155.2058280017495</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.95224991614986</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.8381679969569</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>82.04877695894353</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>60.09545461316787</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>72.29614307268236</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>82.04877695894352</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>89.79110277694369</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>236.003979967238</v>
       </c>
       <c r="D26" t="n">
-        <v>365.9346833049759</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24460,7 +24460,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>102.1862712954189</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.0832094441924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>63.96803218459638</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24694,10 +24694,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>181.2766729288956</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>87.40645861671621</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>10.86428919796759</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24976,10 +24976,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>74.36603113341147</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>178.0074579523983</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>24.44435877622121</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>224.6622365644833</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>254.1521789036062</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>80.49110833120048</v>
       </c>
       <c r="X37" t="n">
-        <v>162.6012282372717</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>311.9648202156537</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>106.8642314578489</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>144.808865096383</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>136.392668402005</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>225.8316871737118</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25639,13 +25639,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>55.01629223713923</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>211.5117283456786</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>166.0458048560687</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>238.6806504743215</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>53.4861337707539</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>151.1299921881718</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>41.72279128668107</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>416261.1422870252</v>
+        <v>416261.1422870251</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>416261.1422870253</v>
+        <v>416261.1422870251</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>416261.1422870253</v>
+        <v>416261.1422870251</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>416261.1422870252</v>
+        <v>416261.1422870253</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>416261.1422870252</v>
+        <v>416261.1422870251</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>416261.1422870251</v>
+        <v>416261.1422870252</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>416261.1422870253</v>
+        <v>416261.1422870251</v>
       </c>
     </row>
   </sheetData>
@@ -26322,13 +26322,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>149432.6927357765</v>
+        <v>149432.6927357764</v>
       </c>
       <c r="F2" t="n">
-        <v>149432.6927357765</v>
+        <v>149432.6927357764</v>
       </c>
       <c r="G2" t="n">
-        <v>149432.6927357765</v>
+        <v>149432.6927357764</v>
       </c>
       <c r="H2" t="n">
         <v>149432.6927357765</v>
@@ -26346,16 +26346,16 @@
         <v>149432.6927357765</v>
       </c>
       <c r="M2" t="n">
-        <v>149432.6927357764</v>
+        <v>149432.6927357765</v>
       </c>
       <c r="N2" t="n">
         <v>149432.6927357765</v>
       </c>
       <c r="O2" t="n">
+        <v>149432.6927357765</v>
+      </c>
+      <c r="P2" t="n">
         <v>149432.6927357764</v>
-      </c>
-      <c r="P2" t="n">
-        <v>149432.6927357765</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025715</v>
+        <v>147050.7684025714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,10 +26429,10 @@
         <v>15620.10484543461</v>
       </c>
       <c r="F4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.10484543462</v>
       </c>
       <c r="G4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="H4" t="n">
         <v>15620.10484543461</v>
@@ -26447,10 +26447,10 @@
         <v>15620.10484543461</v>
       </c>
       <c r="L4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="M4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="N4" t="n">
         <v>15620.10484543461</v>
@@ -26459,7 +26459,7 @@
         <v>15620.10484543461</v>
       </c>
       <c r="P4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963782</v>
@@ -26499,19 +26499,19 @@
         <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-463373.6943099717</v>
+        <v>-463927.5747531937</v>
       </c>
       <c r="F6" t="n">
-        <v>87761.50668070406</v>
+        <v>87207.62623748205</v>
       </c>
       <c r="G6" t="n">
-        <v>87761.50668070409</v>
+        <v>87207.62623748208</v>
       </c>
       <c r="H6" t="n">
-        <v>87761.50668070406</v>
+        <v>87207.62623748211</v>
       </c>
       <c r="I6" t="n">
-        <v>87761.50668070403</v>
+        <v>87207.62623748211</v>
       </c>
       <c r="J6" t="n">
-        <v>87761.50668070406</v>
+        <v>87207.62623748215</v>
       </c>
       <c r="K6" t="n">
-        <v>87761.50668070403</v>
+        <v>87207.62623748212</v>
       </c>
       <c r="L6" t="n">
-        <v>87761.50668070409</v>
+        <v>87207.62623748211</v>
       </c>
       <c r="M6" t="n">
-        <v>-59289.26172186749</v>
+        <v>-59843.14216508932</v>
       </c>
       <c r="N6" t="n">
-        <v>87761.50668070409</v>
+        <v>87207.62623748214</v>
       </c>
       <c r="O6" t="n">
-        <v>87761.50668070401</v>
+        <v>87207.62623748214</v>
       </c>
       <c r="P6" t="n">
-        <v>87761.50668070409</v>
+        <v>87207.62623748208</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26776,10 +26776,10 @@
         <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619342</v>
@@ -26819,19 +26819,19 @@
         <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619339</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,31 +32469,31 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -32736,10 +32736,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,19 +32782,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562291</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -32812,16 +32812,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
         <v>128.7867795998885</v>
@@ -32888,10 +32888,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
         <v>14.66668190417549</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,10 +33019,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -33031,7 +33031,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -33049,16 +33049,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,10 +33125,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417549</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,10 +33256,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33268,7 +33268,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -33280,22 +33280,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,10 +33362,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417549</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33517,7 +33517,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -33733,7 +33733,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -35415,7 +35415,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,7 +35424,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35433,7 +35433,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916783</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562348</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35497,13 +35497,13 @@
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811317</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
@@ -35576,19 +35576,19 @@
         <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>309.1157135712369</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>198.8376634256977</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35664,13 +35664,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>300.8399982398709</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>304.5047560030955</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>542.8637682561043</v>
@@ -35828,7 +35828,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916787</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>304.5047560030946</v>
       </c>
       <c r="O19" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36138,10 +36138,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
         <v>375.3116718572664</v>
@@ -36287,16 +36287,16 @@
         <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>296.14752065127</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>171.8378092578132</v>
       </c>
       <c r="Q22" t="n">
         <v>240.36368292423</v>
@@ -36366,7 +36366,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562291</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36457,10 +36457,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>170.8810658749147</v>
+        <v>300.8399982398713</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>281.8524450409515</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>575.512843395489</v>
@@ -36770,7 +36770,7 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
@@ -36834,7 +36834,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766674</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>254.5083025654568</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -37001,16 +37001,16 @@
         <v>590.0818943619342</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>211.3345102011157</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,13 +37068,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37086,10 +37086,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
         <v>117.855135640546</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447062</v>
+        <v>194.3982176018703</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>294.241390365406</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
         <v>70.4719911420766</v>
@@ -37466,25 +37466,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L37" t="n">
-        <v>170.8810658749154</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125712</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37560,7 +37560,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
         <v>375.3116718572664</v>
@@ -37712,16 +37712,16 @@
         <v>590.0818943619341</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P40" t="n">
-        <v>147.545969470254</v>
+        <v>147.5459694702538</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -37785,7 +37785,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -37879,10 +37879,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37946,13 +37946,13 @@
         <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N43" t="n">
-        <v>304.5047560030951</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>260.4234789221541</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766676</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>260.4234789221543</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
